--- a/data/pca/factorExposure/factorExposure_2016-07-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01130960258596419</v>
+        <v>-0.01345787930365483</v>
       </c>
       <c r="C2">
-        <v>-0.05053141348087716</v>
+        <v>0.0415937761058593</v>
       </c>
       <c r="D2">
-        <v>0.03730618026985539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06213588344294259</v>
+      </c>
+      <c r="E2">
+        <v>0.06849566077975106</v>
+      </c>
+      <c r="F2">
+        <v>-0.06387196312169867</v>
+      </c>
+      <c r="G2">
+        <v>-0.04036049713947659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05085974808805111</v>
+        <v>-0.02983478830771755</v>
       </c>
       <c r="C3">
-        <v>-0.1066199902148107</v>
+        <v>0.07974460173489445</v>
       </c>
       <c r="D3">
-        <v>0.100213910411027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08937660858777484</v>
+      </c>
+      <c r="E3">
+        <v>0.06741737970598838</v>
+      </c>
+      <c r="F3">
+        <v>0.01100419180670181</v>
+      </c>
+      <c r="G3">
+        <v>0.03530673078771995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06500255519522483</v>
+        <v>-0.05860311167340506</v>
       </c>
       <c r="C4">
-        <v>-0.05345195443403534</v>
+        <v>0.0643295106349363</v>
       </c>
       <c r="D4">
-        <v>0.02976247669036029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06075636668192107</v>
+      </c>
+      <c r="E4">
+        <v>0.06851877446695616</v>
+      </c>
+      <c r="F4">
+        <v>-0.0791511846099492</v>
+      </c>
+      <c r="G4">
+        <v>0.03782085973048307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03980360530305132</v>
+        <v>-0.03571873177534774</v>
       </c>
       <c r="C6">
-        <v>-0.03943000270751411</v>
+        <v>0.0321053810087456</v>
       </c>
       <c r="D6">
-        <v>0.0333520354785011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06431943881791487</v>
+      </c>
+      <c r="E6">
+        <v>0.07224701487517957</v>
+      </c>
+      <c r="F6">
+        <v>-0.05651313838896503</v>
+      </c>
+      <c r="G6">
+        <v>0.02301162541499191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0224139840892784</v>
+        <v>-0.01863500196366369</v>
       </c>
       <c r="C7">
-        <v>-0.04459092117439117</v>
+        <v>0.03896586481325262</v>
       </c>
       <c r="D7">
-        <v>-0.004923989048451287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03864172025087419</v>
+      </c>
+      <c r="E7">
+        <v>0.04787514542517097</v>
+      </c>
+      <c r="F7">
+        <v>-0.09792207166954497</v>
+      </c>
+      <c r="G7">
+        <v>0.00660669457131838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003891235176714569</v>
+        <v>-0.003590108907868457</v>
       </c>
       <c r="C8">
-        <v>-0.03027768361384563</v>
+        <v>0.02873167181114286</v>
       </c>
       <c r="D8">
-        <v>0.02498024333757246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03160563183715122</v>
+      </c>
+      <c r="E8">
+        <v>0.05010556813629774</v>
+      </c>
+      <c r="F8">
+        <v>-0.03525960273166907</v>
+      </c>
+      <c r="G8">
+        <v>0.008039156554741909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03599298062790729</v>
+        <v>-0.03740475312339452</v>
       </c>
       <c r="C9">
-        <v>-0.04313074249773855</v>
+        <v>0.05190636223125721</v>
       </c>
       <c r="D9">
-        <v>0.01551130278832539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04363273398789243</v>
+      </c>
+      <c r="E9">
+        <v>0.05647951762743381</v>
+      </c>
+      <c r="F9">
+        <v>-0.08292489028536219</v>
+      </c>
+      <c r="G9">
+        <v>0.02334297288987031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07193337487676663</v>
+        <v>-0.09885670410287668</v>
       </c>
       <c r="C10">
-        <v>0.196057768982797</v>
+        <v>-0.1977315501810609</v>
       </c>
       <c r="D10">
-        <v>-0.007494167078603735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.004782697941931278</v>
+      </c>
+      <c r="E10">
+        <v>0.04333067274709319</v>
+      </c>
+      <c r="F10">
+        <v>-0.0402636226400256</v>
+      </c>
+      <c r="G10">
+        <v>0.008448673996815322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04232848747531206</v>
+        <v>-0.03679572068254194</v>
       </c>
       <c r="C11">
-        <v>-0.05401027100326437</v>
+        <v>0.05125633637976345</v>
       </c>
       <c r="D11">
-        <v>0.01365491019481631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03442358525557229</v>
+      </c>
+      <c r="E11">
+        <v>0.0157787082966941</v>
+      </c>
+      <c r="F11">
+        <v>-0.06540650314352714</v>
+      </c>
+      <c r="G11">
+        <v>0.01490514835534396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04151037059227167</v>
+        <v>-0.03759332034201894</v>
       </c>
       <c r="C12">
-        <v>-0.04797148856236768</v>
+        <v>0.04703488686818843</v>
       </c>
       <c r="D12">
-        <v>0.003090947104585935</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02645091447458909</v>
+      </c>
+      <c r="E12">
+        <v>0.02346498980724912</v>
+      </c>
+      <c r="F12">
+        <v>-0.06493097530902463</v>
+      </c>
+      <c r="G12">
+        <v>0.01151930688673975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01502646686250605</v>
+        <v>-0.01249694605753032</v>
       </c>
       <c r="C13">
-        <v>-0.05404950489845384</v>
+        <v>0.04643302208639282</v>
       </c>
       <c r="D13">
-        <v>0.0181436791037205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05783154714833809</v>
+      </c>
+      <c r="E13">
+        <v>0.08137141340687665</v>
+      </c>
+      <c r="F13">
+        <v>-0.09478220885990153</v>
+      </c>
+      <c r="G13">
+        <v>0.02001247705824858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006901268208688963</v>
+        <v>-0.004706901251217392</v>
       </c>
       <c r="C14">
-        <v>-0.03901159360104672</v>
+        <v>0.03343021243325989</v>
       </c>
       <c r="D14">
-        <v>-0.01276579787594896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02575662175291518</v>
+      </c>
+      <c r="E14">
+        <v>0.0354684318428489</v>
+      </c>
+      <c r="F14">
+        <v>-0.092225604653149</v>
+      </c>
+      <c r="G14">
+        <v>-0.006265243621967735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0003934432196753953</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005020192776456698</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00693752162569878</v>
+      </c>
+      <c r="E15">
+        <v>0.002627763479976295</v>
+      </c>
+      <c r="F15">
+        <v>-0.005717567234649622</v>
+      </c>
+      <c r="G15">
+        <v>-0.0001033084279801412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03805250670678417</v>
+        <v>-0.03438861841749623</v>
       </c>
       <c r="C16">
-        <v>-0.04697746921378029</v>
+        <v>0.04548629674821782</v>
       </c>
       <c r="D16">
-        <v>0.008936823167197983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02741604541350279</v>
+      </c>
+      <c r="E16">
+        <v>0.03038991544451112</v>
+      </c>
+      <c r="F16">
+        <v>-0.0653873235780479</v>
+      </c>
+      <c r="G16">
+        <v>0.000751458694104993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0218035239484891</v>
+        <v>-0.01676888387321656</v>
       </c>
       <c r="C19">
-        <v>-0.06168158706882879</v>
+        <v>0.04975333093689466</v>
       </c>
       <c r="D19">
-        <v>0.08050919423247514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09010823764028433</v>
+      </c>
+      <c r="E19">
+        <v>0.09663777308516955</v>
+      </c>
+      <c r="F19">
+        <v>-0.06989257607005168</v>
+      </c>
+      <c r="G19">
+        <v>-0.02560051030787287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01775985802219493</v>
+        <v>-0.0139478092552136</v>
       </c>
       <c r="C20">
-        <v>-0.04794911384168728</v>
+        <v>0.04125442182979289</v>
       </c>
       <c r="D20">
-        <v>0.01525929925495997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04021748961951861</v>
+      </c>
+      <c r="E20">
+        <v>0.06706723471659591</v>
+      </c>
+      <c r="F20">
+        <v>-0.07760263087343239</v>
+      </c>
+      <c r="G20">
+        <v>0.005587111415720677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01159101700634355</v>
+        <v>-0.009555863703473551</v>
       </c>
       <c r="C21">
-        <v>-0.05015465319753469</v>
+        <v>0.04582716837165387</v>
       </c>
       <c r="D21">
-        <v>0.03879062403446226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06817713644303704</v>
+      </c>
+      <c r="E21">
+        <v>0.09678070572883958</v>
+      </c>
+      <c r="F21">
+        <v>-0.1196097638530867</v>
+      </c>
+      <c r="G21">
+        <v>0.005799580286231901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0002346922604592922</v>
+        <v>-0.002353593295083879</v>
       </c>
       <c r="C22">
-        <v>-6.53519929572306e-05</v>
+        <v>0.02461943581547517</v>
       </c>
       <c r="D22">
-        <v>0.0003513599212793803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03858672362536008</v>
+      </c>
+      <c r="E22">
+        <v>0.02997225498209496</v>
+      </c>
+      <c r="F22">
+        <v>-0.01300510393332435</v>
+      </c>
+      <c r="G22">
+        <v>0.03966245310685667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0002346922604592922</v>
+        <v>-0.00242434870634601</v>
       </c>
       <c r="C23">
-        <v>-6.53519929572306e-05</v>
+        <v>0.02476366749089162</v>
       </c>
       <c r="D23">
-        <v>0.0003513599212793803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03825287904956507</v>
+      </c>
+      <c r="E23">
+        <v>0.03025172065482976</v>
+      </c>
+      <c r="F23">
+        <v>-0.01281312513221923</v>
+      </c>
+      <c r="G23">
+        <v>0.03987448000022634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03451563345272174</v>
+        <v>-0.0340722686634724</v>
       </c>
       <c r="C24">
-        <v>-0.05071870199982754</v>
+        <v>0.05355990254472884</v>
       </c>
       <c r="D24">
-        <v>0.007418265899543739</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02743633173098766</v>
+      </c>
+      <c r="E24">
+        <v>0.02742445007666008</v>
+      </c>
+      <c r="F24">
+        <v>-0.07452662664925351</v>
+      </c>
+      <c r="G24">
+        <v>0.008864176684136235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04841043131476239</v>
+        <v>-0.04420568908742101</v>
       </c>
       <c r="C25">
-        <v>-0.06112961007258774</v>
+        <v>0.05723077935164097</v>
       </c>
       <c r="D25">
-        <v>-0.001051146182155965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02582296855791052</v>
+      </c>
+      <c r="E25">
+        <v>0.02206922912379979</v>
+      </c>
+      <c r="F25">
+        <v>-0.07642069301499145</v>
+      </c>
+      <c r="G25">
+        <v>0.02558700582884447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01526078490097195</v>
+        <v>-0.01413156687802541</v>
       </c>
       <c r="C26">
-        <v>-0.01647759005385091</v>
+        <v>0.01773742956253995</v>
       </c>
       <c r="D26">
-        <v>-0.00085962931134058</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02473493315826455</v>
+      </c>
+      <c r="E26">
+        <v>0.04012365092602253</v>
+      </c>
+      <c r="F26">
+        <v>-0.06530328954292053</v>
+      </c>
+      <c r="G26">
+        <v>-0.01349029283553102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08645660588225496</v>
+        <v>-0.1337328901642893</v>
       </c>
       <c r="C28">
-        <v>0.2375852850397104</v>
+        <v>-0.2475714261683672</v>
       </c>
       <c r="D28">
-        <v>-0.006264120975344643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0171834467624475</v>
+      </c>
+      <c r="E28">
+        <v>0.05440682780256258</v>
+      </c>
+      <c r="F28">
+        <v>-0.05738623180127573</v>
+      </c>
+      <c r="G28">
+        <v>0.02025193605775614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007483255821217216</v>
+        <v>-0.005840503783112109</v>
       </c>
       <c r="C29">
-        <v>-0.03084705101800727</v>
+        <v>0.02931574288332211</v>
       </c>
       <c r="D29">
-        <v>-0.01718146125474682</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01983677182334934</v>
+      </c>
+      <c r="E29">
+        <v>0.03616160397320341</v>
+      </c>
+      <c r="F29">
+        <v>-0.0859210470863784</v>
+      </c>
+      <c r="G29">
+        <v>0.007131846746667662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0500257050912143</v>
+        <v>-0.04280011911647735</v>
       </c>
       <c r="C30">
-        <v>-0.06159714437990498</v>
+        <v>0.06523092757972536</v>
       </c>
       <c r="D30">
-        <v>0.07590394215964101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1098381808171558</v>
+      </c>
+      <c r="E30">
+        <v>0.06015603190893341</v>
+      </c>
+      <c r="F30">
+        <v>-0.08532641988891308</v>
+      </c>
+      <c r="G30">
+        <v>-0.01359010385685328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05417987330137133</v>
+        <v>-0.05547001858007561</v>
       </c>
       <c r="C31">
-        <v>-0.0361714327378712</v>
+        <v>0.05597974833368277</v>
       </c>
       <c r="D31">
-        <v>-0.02917912617564246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01251549613582421</v>
+      </c>
+      <c r="E31">
+        <v>0.06144470076002555</v>
+      </c>
+      <c r="F31">
+        <v>-0.07065196126785805</v>
+      </c>
+      <c r="G31">
+        <v>0.04618171348868091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001535687091608822</v>
+        <v>-0.004829552659394384</v>
       </c>
       <c r="C32">
-        <v>-0.03867564293585</v>
+        <v>0.03491687833495761</v>
       </c>
       <c r="D32">
-        <v>0.04150530005387692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05375912194931211</v>
+      </c>
+      <c r="E32">
+        <v>0.0411429383044615</v>
+      </c>
+      <c r="F32">
+        <v>-0.06644866968455518</v>
+      </c>
+      <c r="G32">
+        <v>-0.01014368997852461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02859832602694254</v>
+        <v>-0.0250437704194845</v>
       </c>
       <c r="C33">
-        <v>-0.05938065750914587</v>
+        <v>0.054953584113474</v>
       </c>
       <c r="D33">
-        <v>0.0459937286404376</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08035084351110792</v>
+      </c>
+      <c r="E33">
+        <v>0.0713275250327129</v>
+      </c>
+      <c r="F33">
+        <v>-0.1161343918272737</v>
+      </c>
+      <c r="G33">
+        <v>0.01963732240500575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0463096975007898</v>
+        <v>-0.04154846671465485</v>
       </c>
       <c r="C34">
-        <v>-0.06627591915259608</v>
+        <v>0.06421364135560374</v>
       </c>
       <c r="D34">
-        <v>0.01087261037966989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03472727441617765</v>
+      </c>
+      <c r="E34">
+        <v>0.00219245650342409</v>
+      </c>
+      <c r="F34">
+        <v>-0.07603686013384377</v>
+      </c>
+      <c r="G34">
+        <v>0.01081877579979806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01377985546316992</v>
+        <v>-0.01316120375219282</v>
       </c>
       <c r="C36">
-        <v>-0.01524490005157119</v>
+        <v>0.01319023367092508</v>
       </c>
       <c r="D36">
-        <v>-0.003461571935480021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02706080575092892</v>
+      </c>
+      <c r="E36">
+        <v>0.04628827592463423</v>
+      </c>
+      <c r="F36">
+        <v>-0.07273264238388885</v>
+      </c>
+      <c r="G36">
+        <v>0.008722959416580928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03109945567746051</v>
+        <v>-0.02496986056664129</v>
       </c>
       <c r="C38">
-        <v>-0.02915115705028029</v>
+        <v>0.02359931458107634</v>
       </c>
       <c r="D38">
-        <v>-0.006384164706945353</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02635780180210492</v>
+      </c>
+      <c r="E38">
+        <v>0.04428803584947458</v>
+      </c>
+      <c r="F38">
+        <v>-0.06011692667189366</v>
+      </c>
+      <c r="G38">
+        <v>0.001939932293789739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04666335607188576</v>
+        <v>-0.04019561250495322</v>
       </c>
       <c r="C39">
-        <v>-0.07004087729513472</v>
+        <v>0.06847636615443295</v>
       </c>
       <c r="D39">
-        <v>0.02070378676905563</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05497904028816773</v>
+      </c>
+      <c r="E39">
+        <v>0.03237573786315686</v>
+      </c>
+      <c r="F39">
+        <v>-0.08458018516981344</v>
+      </c>
+      <c r="G39">
+        <v>-0.01402862292690266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01398883587137679</v>
+        <v>-0.01423815023173656</v>
       </c>
       <c r="C40">
-        <v>-0.053526423798102</v>
+        <v>0.03974446079983973</v>
       </c>
       <c r="D40">
-        <v>0.02380781871175386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0373422077624992</v>
+      </c>
+      <c r="E40">
+        <v>0.07265162917085029</v>
+      </c>
+      <c r="F40">
+        <v>-0.07160167721675066</v>
+      </c>
+      <c r="G40">
+        <v>0.03999288307214769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01867850848922888</v>
+        <v>-0.01805363119745875</v>
       </c>
       <c r="C41">
-        <v>-0.005014568637258921</v>
+        <v>0.007532938247746212</v>
       </c>
       <c r="D41">
-        <v>-0.002658992900327461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01437810383423803</v>
+      </c>
+      <c r="E41">
+        <v>0.04938065787495974</v>
+      </c>
+      <c r="F41">
+        <v>-0.061043170917882</v>
+      </c>
+      <c r="G41">
+        <v>0.001412485620208292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03678910867678253</v>
+        <v>-0.02864829983375816</v>
       </c>
       <c r="C43">
-        <v>-0.0218182587382094</v>
+        <v>0.02192628385582943</v>
       </c>
       <c r="D43">
-        <v>0.01900720617983575</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03977018077550443</v>
+      </c>
+      <c r="E43">
+        <v>0.05946040641006192</v>
+      </c>
+      <c r="F43">
+        <v>-0.07164067987552065</v>
+      </c>
+      <c r="G43">
+        <v>0.02134632090854688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01562766348189774</v>
+        <v>-0.01504567648558735</v>
       </c>
       <c r="C44">
-        <v>-0.06437669498277887</v>
+        <v>0.05171826337657626</v>
       </c>
       <c r="D44">
-        <v>0.01725138226540154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04270913683144018</v>
+      </c>
+      <c r="E44">
+        <v>0.07868649418743022</v>
+      </c>
+      <c r="F44">
+        <v>-0.07335611597283055</v>
+      </c>
+      <c r="G44">
+        <v>-0.006832150904942772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.004953602851972414</v>
+        <v>-0.007685355318881404</v>
       </c>
       <c r="C46">
-        <v>-0.02234217563810544</v>
+        <v>0.02645923365050899</v>
       </c>
       <c r="D46">
-        <v>-0.02111054919999584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01125862530053522</v>
+      </c>
+      <c r="E46">
+        <v>0.04536931583198111</v>
+      </c>
+      <c r="F46">
+        <v>-0.09908998178483</v>
+      </c>
+      <c r="G46">
+        <v>-0.0003138617166159553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08371825425263194</v>
+        <v>-0.08759567494627464</v>
       </c>
       <c r="C47">
-        <v>-0.0652385449539348</v>
+        <v>0.0790011057708747</v>
       </c>
       <c r="D47">
-        <v>-0.02675427302625305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01753291265823347</v>
+      </c>
+      <c r="E47">
+        <v>0.06455018104461353</v>
+      </c>
+      <c r="F47">
+        <v>-0.07506775090662465</v>
+      </c>
+      <c r="G47">
+        <v>0.05024727576741776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01869024531746074</v>
+        <v>-0.01571221717954864</v>
       </c>
       <c r="C48">
-        <v>-0.01285671374216612</v>
+        <v>0.01706963548353316</v>
       </c>
       <c r="D48">
-        <v>-0.0156067212072296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01677063544622016</v>
+      </c>
+      <c r="E48">
+        <v>0.05780338161025762</v>
+      </c>
+      <c r="F48">
+        <v>-0.08893015427960406</v>
+      </c>
+      <c r="G48">
+        <v>0.00819370449768878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08140564894165202</v>
+        <v>-0.07133794432728721</v>
       </c>
       <c r="C50">
-        <v>-0.07271145416897935</v>
+        <v>0.07264372446111474</v>
       </c>
       <c r="D50">
-        <v>-0.02882384509848902</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.004144113962574151</v>
+      </c>
+      <c r="E50">
+        <v>0.06732201845235926</v>
+      </c>
+      <c r="F50">
+        <v>-0.05734093665065543</v>
+      </c>
+      <c r="G50">
+        <v>0.06932832284785603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01582854935459017</v>
+        <v>-0.01100927322621568</v>
       </c>
       <c r="C51">
-        <v>-0.04878021909398018</v>
+        <v>0.03334203526040068</v>
       </c>
       <c r="D51">
-        <v>0.02332697758038186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0494813578276761</v>
+      </c>
+      <c r="E51">
+        <v>0.03572200174041496</v>
+      </c>
+      <c r="F51">
+        <v>-0.07581315249692762</v>
+      </c>
+      <c r="G51">
+        <v>-0.02070247708397182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08158733763588374</v>
+        <v>-0.09390413348547665</v>
       </c>
       <c r="C53">
-        <v>-0.07685625074245059</v>
+        <v>0.08674372264728836</v>
       </c>
       <c r="D53">
-        <v>-0.03793874098425579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04008054605158049</v>
+      </c>
+      <c r="E53">
+        <v>0.06197827627415565</v>
+      </c>
+      <c r="F53">
+        <v>-0.08535372657403552</v>
+      </c>
+      <c r="G53">
+        <v>0.06270362889411571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0298712439597405</v>
+        <v>-0.02763936906248703</v>
       </c>
       <c r="C54">
-        <v>-0.02591755498569733</v>
+        <v>0.02696543415047775</v>
       </c>
       <c r="D54">
-        <v>-0.0002780620752516429</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0292631952545174</v>
+      </c>
+      <c r="E54">
+        <v>0.04513924886831864</v>
+      </c>
+      <c r="F54">
+        <v>-0.09700031550846455</v>
+      </c>
+      <c r="G54">
+        <v>0.007966427789162463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07520046601813912</v>
+        <v>-0.0852578424044952</v>
       </c>
       <c r="C55">
-        <v>-0.058056044956576</v>
+        <v>0.06950487537784915</v>
       </c>
       <c r="D55">
-        <v>-0.04580563929652685</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0476390933356919</v>
+      </c>
+      <c r="E55">
+        <v>0.04822992710313511</v>
+      </c>
+      <c r="F55">
+        <v>-0.05988311918655236</v>
+      </c>
+      <c r="G55">
+        <v>0.05091394985205736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.145199249252152</v>
+        <v>-0.1475720766791609</v>
       </c>
       <c r="C56">
-        <v>-0.09205869111933238</v>
+        <v>0.1040730087969848</v>
       </c>
       <c r="D56">
-        <v>-0.04240110145812321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04911950921990155</v>
+      </c>
+      <c r="E56">
+        <v>0.05146691197370286</v>
+      </c>
+      <c r="F56">
+        <v>-0.0452758615365496</v>
+      </c>
+      <c r="G56">
+        <v>0.05906037161094125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001473136566594387</v>
+        <v>-0.0007973105092696054</v>
       </c>
       <c r="C57">
-        <v>0.001948379001884218</v>
+        <v>-0.0008844130335116662</v>
       </c>
       <c r="D57">
-        <v>0.01573482711359858</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01233711225992673</v>
+      </c>
+      <c r="E57">
+        <v>0.007836028317548477</v>
+      </c>
+      <c r="F57">
+        <v>-0.007338790100611383</v>
+      </c>
+      <c r="G57">
+        <v>0.002275976070759488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05402607088429563</v>
+        <v>-0.03024234626792131</v>
       </c>
       <c r="C58">
-        <v>-0.02826413450587908</v>
+        <v>0.03432830633671925</v>
       </c>
       <c r="D58">
-        <v>0.7337692097309738</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4133513905164243</v>
+      </c>
+      <c r="E58">
+        <v>0.6585248372085238</v>
+      </c>
+      <c r="F58">
+        <v>0.5481257793691687</v>
+      </c>
+      <c r="G58">
+        <v>-0.06267348766782135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1290261902840956</v>
+        <v>-0.1438237437677065</v>
       </c>
       <c r="C59">
-        <v>0.1979741002295228</v>
+        <v>-0.1875565488406838</v>
       </c>
       <c r="D59">
-        <v>0.02010087946300836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03066861968322528</v>
+      </c>
+      <c r="E59">
+        <v>0.02597878194779647</v>
+      </c>
+      <c r="F59">
+        <v>-0.02033784376266108</v>
+      </c>
+      <c r="G59">
+        <v>-0.02991543192211467</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.311065524047026</v>
+        <v>-0.2830060067239365</v>
       </c>
       <c r="C60">
-        <v>-0.08645466432618568</v>
+        <v>0.09774505368714254</v>
       </c>
       <c r="D60">
-        <v>0.1185064504888356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2178787362944146</v>
+      </c>
+      <c r="E60">
+        <v>-0.2674608882434711</v>
+      </c>
+      <c r="F60">
+        <v>0.09395955695535296</v>
+      </c>
+      <c r="G60">
+        <v>0.04966719593626844</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04406429452048227</v>
+        <v>-0.04135935363761263</v>
       </c>
       <c r="C61">
-        <v>-0.06542531062883516</v>
+        <v>0.06287522457305914</v>
       </c>
       <c r="D61">
-        <v>0.01496033191070922</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04616797113479196</v>
+      </c>
+      <c r="E61">
+        <v>0.03664474238505652</v>
+      </c>
+      <c r="F61">
+        <v>-0.07588613624635017</v>
+      </c>
+      <c r="G61">
+        <v>0.01223727297907572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01597891529220685</v>
+        <v>-0.01544336080965456</v>
       </c>
       <c r="C63">
-        <v>-0.03530844490081426</v>
+        <v>0.03248055132408708</v>
       </c>
       <c r="D63">
-        <v>-0.007708618679807351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02224369581564554</v>
+      </c>
+      <c r="E63">
+        <v>0.0499675834161562</v>
+      </c>
+      <c r="F63">
+        <v>-0.06878517516685516</v>
+      </c>
+      <c r="G63">
+        <v>0.02765561481261723</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04885675882857012</v>
+        <v>-0.05598875348768559</v>
       </c>
       <c r="C64">
-        <v>-0.04169629406270245</v>
+        <v>0.05480463091563853</v>
       </c>
       <c r="D64">
-        <v>0.001131896210579417</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.007438877454274088</v>
+      </c>
+      <c r="E64">
+        <v>0.03095658347436228</v>
+      </c>
+      <c r="F64">
+        <v>-0.08632188993707109</v>
+      </c>
+      <c r="G64">
+        <v>0.009687657063328014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08802810916789654</v>
+        <v>-0.07005265366504329</v>
       </c>
       <c r="C65">
-        <v>-0.03106423886531743</v>
+        <v>0.03275069800347837</v>
       </c>
       <c r="D65">
-        <v>0.05313524067578761</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08687222037256663</v>
+      </c>
+      <c r="E65">
+        <v>0.03660982569304917</v>
+      </c>
+      <c r="F65">
+        <v>-0.006613001614197122</v>
+      </c>
+      <c r="G65">
+        <v>0.004845273770036285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06520866995202028</v>
+        <v>-0.05295485136399136</v>
       </c>
       <c r="C66">
-        <v>-0.09990558141069276</v>
+        <v>0.0906668394653274</v>
       </c>
       <c r="D66">
-        <v>0.04342574851430336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08217703971629089</v>
+      </c>
+      <c r="E66">
+        <v>0.03830598405061855</v>
+      </c>
+      <c r="F66">
+        <v>-0.08593941094470196</v>
+      </c>
+      <c r="G66">
+        <v>0.003557180859540966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05338926298059875</v>
+        <v>-0.0468955908349411</v>
       </c>
       <c r="C67">
-        <v>-0.03336731271190997</v>
+        <v>0.03002924513718442</v>
       </c>
       <c r="D67">
-        <v>-0.00885344340390406</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0130282632465198</v>
+      </c>
+      <c r="E67">
+        <v>0.02468105402521234</v>
+      </c>
+      <c r="F67">
+        <v>-0.04941867112065911</v>
+      </c>
+      <c r="G67">
+        <v>0.008785865399029393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1168703656277109</v>
+        <v>-0.1486725090050829</v>
       </c>
       <c r="C68">
-        <v>0.2824298496031042</v>
+        <v>-0.2509527735884891</v>
       </c>
       <c r="D68">
-        <v>-0.01118462481035126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01780951692534485</v>
+      </c>
+      <c r="E68">
+        <v>0.04343738219011887</v>
+      </c>
+      <c r="F68">
+        <v>-0.01338585749513794</v>
+      </c>
+      <c r="G68">
+        <v>0.01076488521635398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09113926368614914</v>
+        <v>-0.0873678254608566</v>
       </c>
       <c r="C69">
-        <v>-0.0639475645793173</v>
+        <v>0.08594274364188817</v>
       </c>
       <c r="D69">
-        <v>-0.03946042813556633</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009218350480279599</v>
+      </c>
+      <c r="E69">
+        <v>0.04745506995878088</v>
+      </c>
+      <c r="F69">
+        <v>-0.09186811432071416</v>
+      </c>
+      <c r="G69">
+        <v>0.02753734277942661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1104178022348889</v>
+        <v>-0.1415940505735582</v>
       </c>
       <c r="C71">
-        <v>0.2473636561819438</v>
+        <v>-0.2356365136955693</v>
       </c>
       <c r="D71">
-        <v>0.02480199719958933</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01405076683726111</v>
+      </c>
+      <c r="E71">
+        <v>0.06209187040995286</v>
+      </c>
+      <c r="F71">
+        <v>-0.05453867262052999</v>
+      </c>
+      <c r="G71">
+        <v>0.03573450355822201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0900886729329706</v>
+        <v>-0.09830026400606412</v>
       </c>
       <c r="C72">
-        <v>-0.04958559886046021</v>
+        <v>0.05671359949172192</v>
       </c>
       <c r="D72">
-        <v>0.004551171624944686</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0281821615027987</v>
+      </c>
+      <c r="E72">
+        <v>0.01556555804705147</v>
+      </c>
+      <c r="F72">
+        <v>-0.07078118099276041</v>
+      </c>
+      <c r="G72">
+        <v>0.03386799785744347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4170711846727146</v>
+        <v>-0.3478277727912245</v>
       </c>
       <c r="C73">
-        <v>-0.04934526234321939</v>
+        <v>0.07755681890281618</v>
       </c>
       <c r="D73">
-        <v>0.320023841436993</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.460332004349446</v>
+      </c>
+      <c r="E73">
+        <v>-0.4798943013574001</v>
+      </c>
+      <c r="F73">
+        <v>0.250088111826124</v>
+      </c>
+      <c r="G73">
+        <v>0.1055569100833641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1095045146055812</v>
+        <v>-0.1115083517597393</v>
       </c>
       <c r="C74">
-        <v>-0.09731529349786529</v>
+        <v>0.09751249907163297</v>
       </c>
       <c r="D74">
-        <v>-0.01959838404670307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03090258805512167</v>
+      </c>
+      <c r="E74">
+        <v>0.06518455677887766</v>
+      </c>
+      <c r="F74">
+        <v>-0.04849989352640006</v>
+      </c>
+      <c r="G74">
+        <v>0.07305958830468583</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.255275934736222</v>
+        <v>-0.257928252404414</v>
       </c>
       <c r="C75">
-        <v>-0.09980093946247806</v>
+        <v>0.1294483034826302</v>
       </c>
       <c r="D75">
-        <v>-0.08449998063941773</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1274538403227674</v>
+      </c>
+      <c r="E75">
+        <v>0.07060748595164759</v>
+      </c>
+      <c r="F75">
+        <v>-0.01656521119676285</v>
+      </c>
+      <c r="G75">
+        <v>0.07385671225629202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1137961362775889</v>
+        <v>-0.1281128366298937</v>
       </c>
       <c r="C76">
-        <v>-0.09022702946647208</v>
+        <v>0.09904453562933274</v>
       </c>
       <c r="D76">
-        <v>-0.04069839491925038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05725783374634898</v>
+      </c>
+      <c r="E76">
+        <v>0.07801160419600113</v>
+      </c>
+      <c r="F76">
+        <v>-0.06940293896305474</v>
+      </c>
+      <c r="G76">
+        <v>0.05704274270162472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07929002350710936</v>
+        <v>-0.06375469081671012</v>
       </c>
       <c r="C77">
-        <v>-0.06087435248290324</v>
+        <v>0.07370326728789213</v>
       </c>
       <c r="D77">
-        <v>0.05666039087233284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06399525291641679</v>
+      </c>
+      <c r="E77">
+        <v>0.09475699496844972</v>
+      </c>
+      <c r="F77">
+        <v>-0.1092688334659731</v>
+      </c>
+      <c r="G77">
+        <v>-0.134645176609609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04959983285479127</v>
+        <v>-0.04392774836906149</v>
       </c>
       <c r="C78">
-        <v>-0.04937673668531115</v>
+        <v>0.06142012593312616</v>
       </c>
       <c r="D78">
-        <v>0.0235122241774614</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06646516111110817</v>
+      </c>
+      <c r="E78">
+        <v>0.04271740003553275</v>
+      </c>
+      <c r="F78">
+        <v>-0.08448433248274823</v>
+      </c>
+      <c r="G78">
+        <v>0.005611696960987815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.026585040392994</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03928360982422145</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06101902434188994</v>
+      </c>
+      <c r="E79">
+        <v>0.05960609302905531</v>
+      </c>
+      <c r="F79">
+        <v>-0.03513155807450205</v>
+      </c>
+      <c r="G79">
+        <v>0.06825659019891672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04635667478207938</v>
+        <v>-0.03460075526965562</v>
       </c>
       <c r="C80">
-        <v>-0.05395442356621794</v>
+        <v>0.05522178435233104</v>
       </c>
       <c r="D80">
-        <v>0.02926517603266799</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04412706114474264</v>
+      </c>
+      <c r="E80">
+        <v>0.0153267102806379</v>
+      </c>
+      <c r="F80">
+        <v>-0.03294485072817716</v>
+      </c>
+      <c r="G80">
+        <v>-0.04698331367513119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1407856515194367</v>
+        <v>-0.1407954385217663</v>
       </c>
       <c r="C81">
-        <v>-0.07768885970543779</v>
+        <v>0.09385568724360187</v>
       </c>
       <c r="D81">
-        <v>-0.06325474614224798</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1001615190827969</v>
+      </c>
+      <c r="E81">
+        <v>0.08508384325820201</v>
+      </c>
+      <c r="F81">
+        <v>-0.01135026650925144</v>
+      </c>
+      <c r="G81">
+        <v>0.05142315759103801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1611849952617429</v>
+        <v>-0.203174278792389</v>
       </c>
       <c r="C82">
-        <v>-0.06918262188080636</v>
+        <v>0.1371676861420212</v>
       </c>
       <c r="D82">
-        <v>-0.1593451035399315</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2354113474354907</v>
+      </c>
+      <c r="E82">
+        <v>0.00573694798283832</v>
+      </c>
+      <c r="F82">
+        <v>-0.1026720310537332</v>
+      </c>
+      <c r="G82">
+        <v>0.04907316227939839</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04155541462510639</v>
+        <v>-0.02831596497928609</v>
       </c>
       <c r="C83">
-        <v>-0.02636498637477393</v>
+        <v>0.04236058668049957</v>
       </c>
       <c r="D83">
-        <v>0.03073378136276478</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0338567281535091</v>
+      </c>
+      <c r="E83">
+        <v>0.01970203702068761</v>
+      </c>
+      <c r="F83">
+        <v>-0.03989430805233387</v>
+      </c>
+      <c r="G83">
+        <v>-0.02183360215820991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.116803305100296e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0002306109126091109</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0001582464570220464</v>
+      </c>
+      <c r="E84">
+        <v>-4.837155060413541e-05</v>
+      </c>
+      <c r="F84">
+        <v>-0.0005589928401239159</v>
+      </c>
+      <c r="G84">
+        <v>0.0003122823308015244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2205378447036329</v>
+        <v>-0.2039288462733615</v>
       </c>
       <c r="C85">
-        <v>-0.1021357926368006</v>
+        <v>0.1166185939563203</v>
       </c>
       <c r="D85">
-        <v>-0.1107068048107949</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09706644356320522</v>
+      </c>
+      <c r="E85">
+        <v>0.0002950490199513196</v>
+      </c>
+      <c r="F85">
+        <v>0.008416327775581045</v>
+      </c>
+      <c r="G85">
+        <v>0.1245485626456069</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01091315548238657</v>
+        <v>-0.01081966079249825</v>
       </c>
       <c r="C86">
-        <v>-0.04177444610517543</v>
+        <v>0.03202221817806788</v>
       </c>
       <c r="D86">
-        <v>0.04229374279880607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06517853418523029</v>
+      </c>
+      <c r="E86">
+        <v>0.06282886705151434</v>
+      </c>
+      <c r="F86">
+        <v>-0.1248942131050477</v>
+      </c>
+      <c r="G86">
+        <v>-0.01579086244514322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02497570889666471</v>
+        <v>-0.02274276901611481</v>
       </c>
       <c r="C87">
-        <v>-0.01051083211191248</v>
+        <v>0.02121823475007779</v>
       </c>
       <c r="D87">
-        <v>0.09617027675778833</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09117260111600188</v>
+      </c>
+      <c r="E87">
+        <v>0.110966911865178</v>
+      </c>
+      <c r="F87">
+        <v>-0.06639306402287749</v>
+      </c>
+      <c r="G87">
+        <v>-0.03962824422425652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.106086184646643</v>
+        <v>-0.09297633211979257</v>
       </c>
       <c r="C88">
-        <v>-0.06649427421433921</v>
+        <v>0.06251438911885161</v>
       </c>
       <c r="D88">
-        <v>-0.02877778825518452</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.005063893620279777</v>
+      </c>
+      <c r="E88">
+        <v>0.0435685046786507</v>
+      </c>
+      <c r="F88">
+        <v>-0.06979989052335088</v>
+      </c>
+      <c r="G88">
+        <v>-0.02755118492501588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1762307335307185</v>
+        <v>-0.2181809411092806</v>
       </c>
       <c r="C89">
-        <v>0.3826876186295868</v>
+        <v>-0.3802995619073694</v>
       </c>
       <c r="D89">
-        <v>-0.0233093264618319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.005036840629332071</v>
+      </c>
+      <c r="E89">
+        <v>0.06170922114630531</v>
+      </c>
+      <c r="F89">
+        <v>-0.07649521086490133</v>
+      </c>
+      <c r="G89">
+        <v>-0.06388319618556666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1694933191565883</v>
+        <v>-0.1982973368999962</v>
       </c>
       <c r="C90">
-        <v>0.3420707908639218</v>
+        <v>-0.3154356311109596</v>
       </c>
       <c r="D90">
-        <v>-0.0186406789071271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01231851160051022</v>
+      </c>
+      <c r="E90">
+        <v>0.07214916472514286</v>
+      </c>
+      <c r="F90">
+        <v>-0.04296777607769939</v>
+      </c>
+      <c r="G90">
+        <v>-0.01244186943909397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1915469092590021</v>
+        <v>-0.1862329416798306</v>
       </c>
       <c r="C91">
-        <v>-0.1232570161364669</v>
+        <v>0.1395179386232052</v>
       </c>
       <c r="D91">
-        <v>-0.08362076062251235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1083057122707063</v>
+      </c>
+      <c r="E91">
+        <v>0.06210267374767139</v>
+      </c>
+      <c r="F91">
+        <v>-0.03690780142428858</v>
+      </c>
+      <c r="G91">
+        <v>0.05780863238562009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.160622396323196</v>
+        <v>-0.1800443236693734</v>
       </c>
       <c r="C92">
-        <v>0.2920939376689539</v>
+        <v>-0.2859317564739459</v>
       </c>
       <c r="D92">
-        <v>-0.004517225314093959</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.004727137656707966</v>
+      </c>
+      <c r="E92">
+        <v>0.07049574434087412</v>
+      </c>
+      <c r="F92">
+        <v>-0.08398433406589936</v>
+      </c>
+      <c r="G92">
+        <v>-0.0113040397127465</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1942404026000902</v>
+        <v>-0.2218944499677708</v>
       </c>
       <c r="C93">
-        <v>0.3436651293994311</v>
+        <v>-0.3196449530514762</v>
       </c>
       <c r="D93">
-        <v>-0.01620011981315896</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004018943707414557</v>
+      </c>
+      <c r="E93">
+        <v>0.04678036146126564</v>
+      </c>
+      <c r="F93">
+        <v>-0.04232092937882335</v>
+      </c>
+      <c r="G93">
+        <v>0.02723875524363494</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3408368987237385</v>
+        <v>-0.3445163344897583</v>
       </c>
       <c r="C94">
-        <v>-0.1381307311183872</v>
+        <v>0.1764845984721208</v>
       </c>
       <c r="D94">
-        <v>-0.4313456591334021</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.506269786266679</v>
+      </c>
+      <c r="E94">
+        <v>0.0470150578411757</v>
+      </c>
+      <c r="F94">
+        <v>0.4498310987713313</v>
+      </c>
+      <c r="G94">
+        <v>-0.3222554562643989</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1125264642345039</v>
+        <v>-0.08553773076760897</v>
       </c>
       <c r="C95">
-        <v>-0.07801609839068566</v>
+        <v>0.06847611417752554</v>
       </c>
       <c r="D95">
-        <v>0.118527671480806</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1690949298909514</v>
+      </c>
+      <c r="E95">
+        <v>-0.1051501883637608</v>
+      </c>
+      <c r="F95">
+        <v>-0.2120651827648974</v>
+      </c>
+      <c r="G95">
+        <v>-0.8704091821249715</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1986090101401187</v>
+        <v>-0.1886790883732259</v>
       </c>
       <c r="C98">
-        <v>-0.01446118170896075</v>
+        <v>0.04076765131477868</v>
       </c>
       <c r="D98">
-        <v>0.1236600795967048</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1845224360616656</v>
+      </c>
+      <c r="E98">
+        <v>-0.1521861421376169</v>
+      </c>
+      <c r="F98">
+        <v>0.03691660332252009</v>
+      </c>
+      <c r="G98">
+        <v>0.09682332468600556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007422330230454994</v>
+        <v>-0.005891966897685531</v>
       </c>
       <c r="C101">
-        <v>-0.03086794314399357</v>
+        <v>0.02905640712449484</v>
       </c>
       <c r="D101">
-        <v>-0.01773568134825918</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01930412079080107</v>
+      </c>
+      <c r="E101">
+        <v>0.03682840283510481</v>
+      </c>
+      <c r="F101">
+        <v>-0.08562016407261071</v>
+      </c>
+      <c r="G101">
+        <v>0.006055124514953617</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1229336044845907</v>
+        <v>-0.1248550862626848</v>
       </c>
       <c r="C102">
-        <v>-0.07053867888007623</v>
+        <v>0.0970448762675595</v>
       </c>
       <c r="D102">
-        <v>-0.02806486121319068</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04678029189345331</v>
+      </c>
+      <c r="E102">
+        <v>-0.003428634159178123</v>
+      </c>
+      <c r="F102">
+        <v>-0.04539564651136106</v>
+      </c>
+      <c r="G102">
+        <v>0.01756113938193004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
